--- a/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Samegrelo-Zemo Svaneti/Tsalenjikha.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Samegrelo-Zemo Svaneti/Tsalenjikha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by kind of economic activity\Samegrelo-Zemo Svaneti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of registered entities by kind of economic activity\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F24337-E791-4C0A-8D75-F8415759C934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tsalenjikha" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>(Unit)</t>
   </si>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>Other service activities</t>
-  </si>
-  <si>
-    <t>Activities of households as employers; Undifferentiated goods- and services-producing  activities of households for own use</t>
   </si>
   <si>
     <t>Activity unknown</t>
@@ -105,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +159,30 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -183,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -234,28 +250,37 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -266,12 +291,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -280,15 +299,28 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,37 +601,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="60.7109375" style="6" customWidth="1"/>
+    <col min="2" max="13" width="8.7109375" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,220 +647,246 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>2010</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>2011</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>2012</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>2013</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>2014</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>2015</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>2016</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="8">
         <v>2017</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="8">
         <v>2019</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="8">
         <v>2020</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="N3" s="8">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10">
-        <v>1973</v>
+      <c r="B4" s="9">
+        <v>1962</v>
       </c>
       <c r="C4" s="10">
-        <v>2264</v>
+        <v>2251</v>
       </c>
       <c r="D4" s="10">
-        <v>2445</v>
+        <v>2433</v>
       </c>
       <c r="E4" s="10">
-        <v>2734</v>
+        <v>2723</v>
       </c>
       <c r="F4" s="10">
-        <v>3069</v>
+        <v>3057</v>
       </c>
       <c r="G4" s="10">
-        <v>3264</v>
+        <v>3254</v>
       </c>
       <c r="H4" s="10">
-        <v>3476</v>
+        <v>3465</v>
       </c>
       <c r="I4" s="10">
-        <v>3702</v>
+        <v>3688</v>
       </c>
       <c r="J4" s="10">
-        <v>3888</v>
+        <v>3874</v>
       </c>
       <c r="K4" s="10">
-        <v>4089</v>
+        <v>4077</v>
       </c>
       <c r="L4" s="10">
-        <v>4286</v>
+        <v>4273</v>
       </c>
       <c r="M4" s="10">
-        <v>4559</v>
-      </c>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+        <v>4546</v>
+      </c>
+      <c r="N4" s="10">
+        <v>4830</v>
+      </c>
+      <c r="O4" s="10">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>44</v>
+      <c r="B5" s="11">
+        <v>51</v>
       </c>
       <c r="C5" s="12">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E5" s="12">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F5" s="12">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G5" s="12">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H5" s="12">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I5" s="12">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J5" s="12">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K5" s="12">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L5" s="12">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M5" s="12">
-        <v>105</v>
-      </c>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="12">
+        <v>131</v>
+      </c>
+      <c r="O5" s="12">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>9</v>
       </c>
       <c r="C6" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6" s="12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" s="12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J6" s="12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K6" s="12">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L6" s="12">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" s="12">
-        <v>15</v>
-      </c>
-      <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="12">
+        <v>20</v>
+      </c>
+      <c r="O6" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
-        <v>128</v>
+      <c r="B7" s="11">
+        <v>135</v>
       </c>
       <c r="C7" s="12">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D7" s="12">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E7" s="12">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F7" s="12">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G7" s="12">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H7" s="12">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="I7" s="12">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J7" s="12">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K7" s="12">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L7" s="12">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="M7" s="12">
-        <v>233</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N7" s="12">
+        <v>282</v>
+      </c>
+      <c r="O7" s="12">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
       <c r="C8" s="12">
@@ -865,17 +922,22 @@
       <c r="M8" s="12">
         <v>3</v>
       </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="N8" s="12">
+        <v>3</v>
+      </c>
+      <c r="O8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>4</v>
+      <c r="B9" s="11">
+        <v>5</v>
       </c>
       <c r="C9" s="12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="12">
         <v>6</v>
@@ -896,163 +958,183 @@
         <v>7</v>
       </c>
       <c r="J9" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="12">
-        <v>7</v>
-      </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>85</v>
+      <c r="N9" s="12">
+        <v>8</v>
+      </c>
+      <c r="O9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>94</v>
       </c>
       <c r="C10" s="12">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E10" s="12">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F10" s="12">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G10" s="12">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="H10" s="12">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="I10" s="12">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="J10" s="12">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="K10" s="12">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="L10" s="12">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="M10" s="12">
+        <v>304</v>
+      </c>
+      <c r="N10" s="12">
+        <v>345</v>
+      </c>
+      <c r="O10" s="12">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>316</v>
+      </c>
+      <c r="C11" s="12">
+        <v>400</v>
+      </c>
+      <c r="D11" s="12">
+        <v>451</v>
+      </c>
+      <c r="E11" s="12">
+        <v>531</v>
+      </c>
+      <c r="F11" s="12">
+        <v>599</v>
+      </c>
+      <c r="G11" s="12">
+        <v>629</v>
+      </c>
+      <c r="H11" s="12">
+        <v>661</v>
+      </c>
+      <c r="I11" s="12">
+        <v>716</v>
+      </c>
+      <c r="J11" s="12">
+        <v>769</v>
+      </c>
+      <c r="K11" s="12">
+        <v>830</v>
+      </c>
+      <c r="L11" s="12">
+        <v>896</v>
+      </c>
+      <c r="M11" s="12">
+        <v>979</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1040</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>92</v>
+      </c>
+      <c r="D12" s="12">
+        <v>110</v>
+      </c>
+      <c r="E12" s="12">
+        <v>142</v>
+      </c>
+      <c r="F12" s="12">
+        <v>159</v>
+      </c>
+      <c r="G12" s="12">
+        <v>173</v>
+      </c>
+      <c r="H12" s="12">
+        <v>187</v>
+      </c>
+      <c r="I12" s="12">
+        <v>199</v>
+      </c>
+      <c r="J12" s="12">
+        <v>213</v>
+      </c>
+      <c r="K12" s="12">
         <v>232</v>
       </c>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12">
-        <v>297</v>
-      </c>
-      <c r="C11" s="12">
-        <v>377</v>
-      </c>
-      <c r="D11" s="12">
-        <v>424</v>
-      </c>
-      <c r="E11" s="12">
-        <v>500</v>
-      </c>
-      <c r="F11" s="12">
-        <v>558</v>
-      </c>
-      <c r="G11" s="12">
-        <v>582</v>
-      </c>
-      <c r="H11" s="12">
-        <v>609</v>
-      </c>
-      <c r="I11" s="12">
-        <v>660</v>
-      </c>
-      <c r="J11" s="12">
-        <v>702</v>
-      </c>
-      <c r="K11" s="12">
-        <v>748</v>
-      </c>
-      <c r="L11" s="12">
-        <v>802</v>
-      </c>
-      <c r="M11" s="12">
-        <v>843</v>
-      </c>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12">
-        <v>66</v>
-      </c>
-      <c r="C12" s="12">
-        <v>84</v>
-      </c>
-      <c r="D12" s="12">
-        <v>102</v>
-      </c>
-      <c r="E12" s="12">
-        <v>133</v>
-      </c>
-      <c r="F12" s="12">
-        <v>148</v>
-      </c>
-      <c r="G12" s="12">
-        <v>160</v>
-      </c>
-      <c r="H12" s="12">
-        <v>172</v>
-      </c>
-      <c r="I12" s="12">
-        <v>182</v>
-      </c>
-      <c r="J12" s="12">
-        <v>195</v>
-      </c>
-      <c r="K12" s="12">
-        <v>213</v>
-      </c>
       <c r="L12" s="12">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M12" s="12">
-        <v>226</v>
-      </c>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N12" s="12">
+        <v>284</v>
+      </c>
+      <c r="O12" s="12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
-        <v>28</v>
+      <c r="B13" s="11">
+        <v>27</v>
       </c>
       <c r="C13" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="12">
         <v>45</v>
@@ -1061,69 +1143,79 @@
         <v>52</v>
       </c>
       <c r="I13" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" s="12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="12">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L13" s="12">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M13" s="12">
-        <v>67</v>
-      </c>
-      <c r="N13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="12">
+        <v>81</v>
+      </c>
+      <c r="O13" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
-        <v>7</v>
+      <c r="B14" s="11">
+        <v>8</v>
       </c>
       <c r="C14" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F14" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I14" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K14" s="12">
+        <v>15</v>
+      </c>
+      <c r="L14" s="12">
+        <v>15</v>
+      </c>
+      <c r="M14" s="12">
+        <v>15</v>
+      </c>
+      <c r="N14" s="12">
+        <v>18</v>
+      </c>
+      <c r="O14" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="12">
-        <v>13</v>
-      </c>
-      <c r="M14" s="12">
-        <v>13</v>
-      </c>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>6</v>
       </c>
       <c r="C15" s="12">
@@ -1148,208 +1240,233 @@
         <v>13</v>
       </c>
       <c r="J15" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" s="12">
+        <v>16</v>
+      </c>
+      <c r="L15" s="12">
+        <v>16</v>
+      </c>
+      <c r="M15" s="12">
+        <v>16</v>
+      </c>
+      <c r="N15" s="12">
         <v>15</v>
       </c>
-      <c r="L15" s="12">
+      <c r="O15" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="12">
-        <v>14</v>
-      </c>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>24</v>
+      <c r="B16" s="11">
+        <v>25</v>
       </c>
       <c r="C16" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12">
         <v>25</v>
       </c>
       <c r="F16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L16" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M16" s="12">
-        <v>26</v>
-      </c>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="12">
+        <v>33</v>
+      </c>
+      <c r="O16" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
-        <v>14</v>
+      <c r="B17" s="11">
+        <v>15</v>
       </c>
       <c r="C17" s="12">
         <v>16</v>
       </c>
       <c r="D17" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="12">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12">
         <v>24</v>
       </c>
-      <c r="F17" s="12">
-        <v>25</v>
-      </c>
       <c r="G17" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="12">
         <v>26</v>
       </c>
       <c r="J17" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="12">
+        <v>31</v>
+      </c>
+      <c r="L17" s="12">
+        <v>33</v>
+      </c>
+      <c r="M17" s="12">
+        <v>40</v>
+      </c>
+      <c r="N17" s="12">
+        <v>50</v>
+      </c>
+      <c r="O17" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>12</v>
+      </c>
+      <c r="C18" s="12">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12">
+        <v>15</v>
+      </c>
+      <c r="E18" s="12">
+        <v>17</v>
+      </c>
+      <c r="F18" s="12">
+        <v>20</v>
+      </c>
+      <c r="G18" s="12">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20</v>
+      </c>
+      <c r="I18" s="12">
+        <v>23</v>
+      </c>
+      <c r="J18" s="12">
+        <v>23</v>
+      </c>
+      <c r="K18" s="12">
         <v>27</v>
       </c>
-      <c r="L17" s="12">
-        <v>28</v>
-      </c>
-      <c r="M17" s="12">
+      <c r="L18" s="12">
         <v>29</v>
       </c>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12">
-        <v>10</v>
-      </c>
-      <c r="D18" s="12">
-        <v>11</v>
-      </c>
-      <c r="E18" s="12">
-        <v>13</v>
-      </c>
-      <c r="F18" s="12">
-        <v>16</v>
-      </c>
-      <c r="G18" s="12">
-        <v>16</v>
-      </c>
-      <c r="H18" s="12">
-        <v>16</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="M18" s="12">
+        <v>31</v>
+      </c>
+      <c r="N18" s="12">
+        <v>38</v>
+      </c>
+      <c r="O18" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="12">
+      <c r="B19" s="11">
+        <v>14</v>
+      </c>
+      <c r="C19" s="12">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12">
+        <v>15</v>
+      </c>
+      <c r="F19" s="12">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12">
         <v>17</v>
       </c>
-      <c r="K18" s="12">
+      <c r="H19" s="12">
         <v>18</v>
       </c>
-      <c r="L18" s="12">
+      <c r="I19" s="12">
+        <v>18</v>
+      </c>
+      <c r="J19" s="12">
+        <v>18</v>
+      </c>
+      <c r="K19" s="12">
+        <v>18</v>
+      </c>
+      <c r="L19" s="12">
+        <v>18</v>
+      </c>
+      <c r="M19" s="12">
         <v>19</v>
       </c>
-      <c r="M18" s="12">
-        <v>21</v>
-      </c>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="12">
-        <v>10</v>
-      </c>
-      <c r="C19" s="12">
-        <v>10</v>
-      </c>
-      <c r="D19" s="12">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12">
-        <v>11</v>
-      </c>
-      <c r="F19" s="12">
-        <v>11</v>
-      </c>
-      <c r="G19" s="12">
-        <v>11</v>
-      </c>
-      <c r="H19" s="12">
-        <v>11</v>
-      </c>
-      <c r="I19" s="12">
-        <v>11</v>
-      </c>
-      <c r="J19" s="12">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12">
-        <v>11</v>
-      </c>
-      <c r="L19" s="12">
-        <v>11</v>
-      </c>
-      <c r="M19" s="12">
-        <v>11</v>
-      </c>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="N19" s="12">
+        <v>19</v>
+      </c>
+      <c r="O19" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
-        <v>47</v>
+      <c r="B20" s="11">
+        <v>46</v>
       </c>
       <c r="C20" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="12">
         <v>49</v>
@@ -1358,24 +1475,29 @@
         <v>50</v>
       </c>
       <c r="J20" s="12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L20" s="12">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="12">
-        <v>53</v>
-      </c>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="12">
+        <v>62</v>
+      </c>
+      <c r="O20" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>24</v>
       </c>
       <c r="C21" s="12">
@@ -1388,36 +1510,41 @@
         <v>26</v>
       </c>
       <c r="F21" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G21" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H21" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J21" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" s="12">
-        <v>29</v>
-      </c>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="12">
+        <v>31</v>
+      </c>
+      <c r="O21" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>7</v>
       </c>
       <c r="C22" s="12">
@@ -1453,137 +1580,128 @@
       <c r="M22" s="12">
         <v>7</v>
       </c>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="N22" s="12">
+        <v>12</v>
+      </c>
+      <c r="O22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
-        <v>43</v>
+      <c r="B23" s="11">
+        <v>46</v>
       </c>
       <c r="C23" s="12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D23" s="12">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" s="12">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F23" s="12">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G23" s="12">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H23" s="12">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I23" s="12">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J23" s="12">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K23" s="12">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L23" s="12">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M23" s="12">
-        <v>74</v>
-      </c>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="12">
+        <v>92</v>
+      </c>
+      <c r="O23" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14">
-        <v>1120</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1270</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1352</v>
-      </c>
-      <c r="E25" s="14">
-        <v>1465</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1676</v>
-      </c>
-      <c r="G25" s="14">
-        <v>1797</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1942</v>
-      </c>
-      <c r="I25" s="14">
-        <v>2065</v>
-      </c>
-      <c r="J25" s="14">
-        <v>2169</v>
-      </c>
-      <c r="K25" s="14">
-        <v>2263</v>
-      </c>
-      <c r="L25" s="14">
-        <v>2357</v>
-      </c>
-      <c r="M25" s="14">
-        <v>2550</v>
-      </c>
+      <c r="B24" s="13">
+        <v>1048</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1183</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1259</v>
+      </c>
+      <c r="E24" s="14">
+        <v>1372</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1561</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1662</v>
+      </c>
+      <c r="H24" s="14">
+        <v>1789</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1892</v>
+      </c>
+      <c r="J24" s="14">
+        <v>1978</v>
+      </c>
+      <c r="K24" s="14">
+        <v>2035</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2091</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2181</v>
+      </c>
+      <c r="N24" s="14">
+        <v>2266</v>
+      </c>
+      <c r="O24" s="14">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
